--- a/model/results/green_ggpos_h2obl/b_tech.xlsx
+++ b/model/results/green_ggpos_h2obl/b_tech.xlsx
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3919,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -3995,13 +3995,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -7232,13 +7232,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -7247,13 +7247,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>-3.884377583836026e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7396,16 +7396,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9232,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10560,13 +10560,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -10636,13 +10636,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -10651,13 +10651,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10724,16 +10724,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -11496,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -12180,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -12341,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -12864,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -13888,13 +13888,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -13903,13 +13903,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -13964,13 +13964,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -13979,13 +13979,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.4549844003849484</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307703</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -14052,16 +14052,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -14137,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -14529,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -14596,7 +14596,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -14681,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -14748,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -14757,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -14985,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -15137,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -15204,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -15365,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -15517,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -15669,7 +15669,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -16116,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -16192,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -17216,13 +17216,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17231,13 +17231,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -17292,13 +17292,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17307,13 +17307,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.4460044529895059</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -17380,16 +17380,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -17444,7 +17444,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -17857,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -18000,7 +18000,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -18076,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -18237,7 +18237,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -18389,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -18456,7 +18456,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -18532,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -18541,7 +18541,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -18617,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -18693,7 +18693,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -18769,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -18836,7 +18836,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -18912,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -18997,7 +18997,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -19073,7 +19073,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -19149,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -19216,7 +19216,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -19225,7 +19225,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -19377,7 +19377,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -19444,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -19453,7 +19453,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -19529,7 +19529,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -20544,13 +20544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -20559,13 +20559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313457</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -20708,16 +20708,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.769230769230782</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -20863,13 +20863,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313521</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -21252,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -21337,7 +21337,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -21404,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -21708,7 +21708,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -21869,7 +21869,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -21936,7 +21936,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -22021,7 +22021,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22173,7 +22173,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22240,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -22316,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -22401,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -22477,7 +22477,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -22772,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307716</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -23884,16 +23884,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -24036,16 +24036,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -24121,7 +24121,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.769230769230782</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -24188,16 +24188,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313521</v>
+        <v>1.000000000000017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -24504,7 +24504,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -24513,7 +24513,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -24580,7 +24580,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -24589,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -24656,7 +24656,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -24665,7 +24665,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -24732,7 +24732,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -24741,7 +24741,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -24808,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -24817,7 +24817,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -24884,7 +24884,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -24893,7 +24893,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -24960,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -24969,7 +24969,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -25036,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -25045,7 +25045,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -25121,7 +25121,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -25188,7 +25188,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -25197,7 +25197,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -25264,7 +25264,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -25273,7 +25273,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -25340,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -25416,7 +25416,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -25425,7 +25425,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -25492,7 +25492,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -25501,7 +25501,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -25568,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -25577,7 +25577,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -25653,7 +25653,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -25720,7 +25720,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -25729,7 +25729,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -25796,7 +25796,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -25805,7 +25805,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -25872,7 +25872,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -25881,7 +25881,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -25957,7 +25957,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -26024,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -26033,7 +26033,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -26109,7 +26109,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -26176,7 +26176,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -26185,7 +26185,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307716</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27212,16 +27212,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164198</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27364,16 +27364,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27449,7 +27449,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.769230769230782</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27516,16 +27516,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -27841,7 +27841,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -27917,7 +27917,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -27984,7 +27984,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28069,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28136,7 +28136,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28145,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28212,7 +28212,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28221,7 +28221,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -28288,7 +28288,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28297,7 +28297,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28364,7 +28364,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28373,7 +28373,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28440,7 +28440,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28449,7 +28449,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -28516,7 +28516,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28525,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28592,7 +28592,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28601,7 +28601,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28668,7 +28668,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28677,7 +28677,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -28744,7 +28744,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28753,7 +28753,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28820,7 +28820,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -28829,7 +28829,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -28896,7 +28896,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -28905,7 +28905,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29048,7 +29048,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29124,7 +29124,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29133,7 +29133,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29200,7 +29200,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29209,7 +29209,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29276,7 +29276,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29285,7 +29285,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29352,7 +29352,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29361,7 +29361,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29437,7 +29437,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29504,7 +29504,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29513,7 +29513,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -30540,16 +30540,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164198</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -30625,7 +30625,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -30692,16 +30692,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.769230769230782</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -30844,16 +30844,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -31160,7 +31160,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31169,7 +31169,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -31236,7 +31236,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -31245,7 +31245,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -31312,7 +31312,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31321,7 +31321,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31388,7 +31388,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -31397,7 +31397,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -31464,7 +31464,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -31473,7 +31473,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -31540,7 +31540,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -31549,7 +31549,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -31616,7 +31616,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -31625,7 +31625,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -31692,7 +31692,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -31701,7 +31701,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -31777,7 +31777,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -31853,7 +31853,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -31920,7 +31920,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -31929,7 +31929,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -31996,7 +31996,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -32005,7 +32005,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -32148,7 +32148,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -32157,7 +32157,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32300,7 +32300,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -32376,7 +32376,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -32385,7 +32385,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -32452,7 +32452,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -32528,7 +32528,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -32537,7 +32537,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -32613,7 +32613,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -32680,7 +32680,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -32689,7 +32689,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -32756,7 +32756,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -32765,7 +32765,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -32832,7 +32832,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -32841,7 +32841,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -33856,7 +33856,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307717</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -33868,16 +33868,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164198</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34008,7 +34008,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34020,16 +34020,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.769230769230782</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -34172,16 +34172,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -34488,7 +34488,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -34497,7 +34497,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -34564,7 +34564,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -34573,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -34640,7 +34640,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -34649,7 +34649,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -34725,7 +34725,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -35324,7 +35324,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -35400,7 +35400,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -35552,7 +35552,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -35561,7 +35561,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -35628,7 +35628,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -35637,7 +35637,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -35704,7 +35704,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -35713,7 +35713,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -35780,7 +35780,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -35789,7 +35789,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -35856,7 +35856,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -35865,7 +35865,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -35932,7 +35932,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -35941,7 +35941,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36008,7 +36008,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36017,7 +36017,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36084,7 +36084,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36093,7 +36093,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -36160,7 +36160,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -36169,7 +36169,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -37816,7 +37816,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -37968,7 +37968,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -38044,7 +38044,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -38272,7 +38272,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -38348,7 +38348,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -38424,7 +38424,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -38500,7 +38500,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -38576,7 +38576,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -38652,7 +38652,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -38728,7 +38728,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -38804,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -38880,7 +38880,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -38956,7 +38956,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -39032,7 +39032,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -39108,7 +39108,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -39184,7 +39184,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -39260,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -39336,7 +39336,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -39412,7 +39412,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -39488,7 +39488,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -40512,7 +40512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -40524,16 +40524,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -40664,7 +40664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -40676,16 +40676,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313447</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164191</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40816,7 +40816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.769230769230782</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40828,16 +40828,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -41144,7 +41144,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -41153,7 +41153,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -41220,7 +41220,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -41229,7 +41229,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -41296,7 +41296,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -41305,7 +41305,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -41372,7 +41372,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -41381,7 +41381,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -41448,7 +41448,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -41457,7 +41457,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -41524,7 +41524,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -41533,7 +41533,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -41600,7 +41600,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -41609,7 +41609,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -41676,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -41685,7 +41685,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -41752,7 +41752,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -41761,7 +41761,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -41828,7 +41828,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -41837,7 +41837,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -41904,7 +41904,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -41913,7 +41913,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -41980,7 +41980,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -41989,7 +41989,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -42056,7 +42056,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -42065,7 +42065,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -42132,7 +42132,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -42141,7 +42141,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -42208,7 +42208,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -42217,7 +42217,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -42284,7 +42284,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -42293,7 +42293,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -42360,7 +42360,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -42369,7 +42369,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -42436,7 +42436,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -42445,7 +42445,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -42512,7 +42512,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -42521,7 +42521,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -42588,7 +42588,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -42597,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -42664,7 +42664,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -42673,7 +42673,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -42740,7 +42740,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -42749,7 +42749,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -42816,7 +42816,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -42825,7 +42825,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -43840,7 +43840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -43916,7 +43916,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -44144,7 +44144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -44472,7 +44472,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -44548,7 +44548,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -44624,7 +44624,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -44700,7 +44700,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -44776,7 +44776,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -44852,7 +44852,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -44928,7 +44928,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -45004,7 +45004,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -45080,7 +45080,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -45156,7 +45156,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -45232,7 +45232,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -45308,7 +45308,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -45384,7 +45384,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -45460,7 +45460,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -45536,7 +45536,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -45612,7 +45612,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -45688,7 +45688,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -45764,7 +45764,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -45840,7 +45840,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -45916,7 +45916,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -45992,7 +45992,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -46068,7 +46068,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -46144,7 +46144,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -47320,7 +47320,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -47472,7 +47472,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -47800,7 +47800,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -47876,7 +47876,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -47952,7 +47952,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -48028,7 +48028,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -48104,7 +48104,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -48180,7 +48180,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -48256,7 +48256,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -48332,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -48408,7 +48408,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -48484,7 +48484,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -48560,7 +48560,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -48636,7 +48636,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -48712,7 +48712,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -48788,7 +48788,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -48864,7 +48864,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -48940,7 +48940,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -49016,7 +49016,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -49092,7 +49092,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -49168,7 +49168,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -49244,7 +49244,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -49320,7 +49320,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -49396,7 +49396,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -49472,7 +49472,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -50496,13 +50496,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -50517,7 +50517,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -50572,13 +50572,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -50648,7 +50648,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -50724,7 +50724,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -50800,13 +50800,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -50821,7 +50821,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -51128,7 +51128,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -51204,7 +51204,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -51280,7 +51280,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -51356,7 +51356,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -51432,7 +51432,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -51508,7 +51508,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -51584,7 +51584,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -51660,7 +51660,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -51736,7 +51736,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -51812,7 +51812,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -51888,7 +51888,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -51964,7 +51964,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -52040,7 +52040,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -52116,7 +52116,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -52192,7 +52192,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -52268,7 +52268,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -52344,7 +52344,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -52420,7 +52420,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -52496,7 +52496,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -52572,7 +52572,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -52648,7 +52648,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -52724,7 +52724,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -52800,7 +52800,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -53824,13 +53824,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -53845,7 +53845,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -53900,13 +53900,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -53921,7 +53921,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -53976,7 +53976,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -53997,7 +53997,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -54052,7 +54052,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -54128,13 +54128,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -54149,7 +54149,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -54456,7 +54456,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -54532,7 +54532,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -54608,7 +54608,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -54684,7 +54684,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -54760,7 +54760,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -54836,7 +54836,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -54912,7 +54912,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -54988,7 +54988,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -55064,7 +55064,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -55140,7 +55140,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -55216,7 +55216,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -55292,7 +55292,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -55368,7 +55368,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -55444,7 +55444,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -55520,7 +55520,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -55596,7 +55596,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -55672,7 +55672,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -55748,7 +55748,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -55824,7 +55824,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -55900,7 +55900,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -55976,7 +55976,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -56052,7 +56052,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -56128,7 +56128,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -57152,13 +57152,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -57173,7 +57173,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -57228,13 +57228,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -57249,7 +57249,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -57304,7 +57304,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -57316,16 +57316,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -57380,7 +57380,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -57456,13 +57456,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -57477,7 +57477,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -57784,7 +57784,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -57860,7 +57860,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -57936,7 +57936,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -58012,7 +58012,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -58088,7 +58088,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -58164,7 +58164,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -58240,7 +58240,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -58316,7 +58316,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -58392,7 +58392,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -58468,7 +58468,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -58544,7 +58544,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -58620,7 +58620,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -58696,7 +58696,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -58772,7 +58772,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -58848,7 +58848,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -58924,7 +58924,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -59000,7 +59000,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -59076,7 +59076,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -59152,7 +59152,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -59228,7 +59228,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -59304,7 +59304,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -59380,7 +59380,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -59456,7 +59456,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -60480,13 +60480,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -60556,13 +60556,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -60577,7 +60577,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -60632,7 +60632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -60644,16 +60644,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -60708,7 +60708,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -60784,13 +60784,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -60805,7 +60805,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -61112,7 +61112,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -61121,7 +61121,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -61188,7 +61188,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -61197,7 +61197,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -61264,7 +61264,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -61273,7 +61273,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -61340,7 +61340,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -61349,7 +61349,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -61416,7 +61416,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -61425,7 +61425,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -61492,7 +61492,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -61501,7 +61501,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -61568,7 +61568,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -61577,7 +61577,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -61644,7 +61644,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -61653,7 +61653,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -61720,7 +61720,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -61729,7 +61729,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -61796,7 +61796,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -61805,7 +61805,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -61872,7 +61872,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -61881,7 +61881,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -61948,7 +61948,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -61957,7 +61957,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -62024,7 +62024,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -62033,7 +62033,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -62100,7 +62100,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -62109,7 +62109,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -62176,7 +62176,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -62185,7 +62185,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -62252,7 +62252,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -62261,7 +62261,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -62328,7 +62328,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -62337,7 +62337,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -62404,7 +62404,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -62413,7 +62413,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -62480,7 +62480,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -62489,7 +62489,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -62556,7 +62556,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -62565,7 +62565,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -62632,7 +62632,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -62641,7 +62641,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -62708,7 +62708,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -62717,7 +62717,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -62784,7 +62784,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -62793,7 +62793,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -63808,13 +63808,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07462686567164191</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -63829,7 +63829,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09701492537313447</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -63884,13 +63884,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0746268656716419</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -63905,7 +63905,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.463973327727785</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -63960,7 +63960,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -63972,16 +63972,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09701492537313446</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -64036,7 +64036,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0746268656716419</v>
+        <v>0.07462686567164192</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -64112,13 +64112,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07462686567164191</v>
+        <v>0.0746268656716419</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -64133,7 +64133,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09701492537313447</v>
+        <v>0.09701492537313446</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -64440,7 +64440,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -64449,7 +64449,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -64516,7 +64516,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -64525,7 +64525,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -64592,7 +64592,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -64601,7 +64601,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -64668,7 +64668,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -64677,7 +64677,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -64744,7 +64744,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -64753,7 +64753,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -64820,7 +64820,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -64829,7 +64829,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -64896,7 +64896,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -64905,7 +64905,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -64972,7 +64972,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -64981,7 +64981,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -65048,7 +65048,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -65057,7 +65057,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -65124,7 +65124,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -65133,7 +65133,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -65200,7 +65200,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -65209,7 +65209,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -65276,7 +65276,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -65285,7 +65285,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -65352,7 +65352,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -65361,7 +65361,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -65428,7 +65428,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -65437,7 +65437,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -65504,7 +65504,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -65513,7 +65513,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -65580,7 +65580,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -65589,7 +65589,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -65656,7 +65656,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -65665,7 +65665,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -65732,7 +65732,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -65741,7 +65741,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -65808,7 +65808,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -65817,7 +65817,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -65884,7 +65884,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -65893,7 +65893,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -65960,7 +65960,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -65969,7 +65969,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -66036,7 +66036,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -66045,7 +66045,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -66112,7 +66112,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4545454545454544</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -66121,7 +66121,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1020408163265306</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
